--- a/会计/End of Period Adjustments/Question 1.xlsx
+++ b/会计/End of Period Adjustments/Question 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/End of Period Adjustments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D01B0DB-8A86-584A-AD48-CD30D97CC634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F64376B-7AE9-4940-9034-76BE2483FDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{941F6A29-FE4A-D647-92F6-9FE2EA921F5B}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{941F6A29-FE4A-D647-92F6-9FE2EA921F5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="1" r:id="rId1"/>
@@ -204,9 +204,6 @@
     <t>5% Bank Loan</t>
   </si>
   <si>
-    <t>Bank</t>
-  </si>
-  <si>
     <t>Total Liabilities</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>As At 31 December 2018</t>
+  </si>
+  <si>
+    <t>Bank Overdraft</t>
   </si>
 </sst>
 </file>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,9 +372,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -387,11 +384,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,8 +709,8 @@
   </sheetPr>
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="144" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" zoomScale="144" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,7 +723,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -734,7 +731,7 @@
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -742,7 +739,7 @@
     </row>
     <row r="3" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -798,7 +795,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
@@ -806,7 +803,7 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
@@ -816,7 +813,7 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="8">
@@ -826,7 +823,7 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="9">
@@ -836,7 +833,7 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="8">
@@ -847,7 +844,7 @@
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="8">
@@ -858,7 +855,7 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="8">
@@ -869,7 +866,7 @@
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="8">
@@ -879,7 +876,7 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="9">
@@ -889,7 +886,7 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="8"/>
@@ -900,7 +897,7 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="8"/>
@@ -911,7 +908,7 @@
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="8"/>
@@ -924,8 +921,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>64</v>
+      <c r="A21" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -935,7 +932,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="8"/>
@@ -1016,7 +1013,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="8"/>
@@ -1024,7 +1021,7 @@
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="8"/>
@@ -1035,7 +1032,7 @@
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="8"/>
@@ -1045,7 +1042,7 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="8"/>
@@ -1055,7 +1052,7 @@
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="8"/>
@@ -1066,7 +1063,7 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="8"/>
@@ -1076,8 +1073,8 @@
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
-        <v>68</v>
+      <c r="A36" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8">
@@ -1086,7 +1083,7 @@
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="8"/>
@@ -1096,7 +1093,7 @@
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="8"/>
@@ -1106,7 +1103,7 @@
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="8"/>
@@ -1116,7 +1113,7 @@
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="8"/>
@@ -1126,8 +1123,8 @@
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>67</v>
+      <c r="A41" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="9">
@@ -1139,7 +1136,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B42" s="8"/>
@@ -1217,8 +1214,8 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1226,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1245,7 +1242,7 @@
     </row>
     <row r="3" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1282,7 +1279,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="8"/>
@@ -1305,7 +1302,7 @@
     </row>
     <row r="9" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="8">
         <v>165000</v>
@@ -1348,7 +1345,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="8"/>
@@ -1388,7 +1385,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="8"/>
@@ -1430,9 +1427,9 @@
     </row>
     <row r="20" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="8">
         <v>2700</v>
       </c>
@@ -1473,7 +1470,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="8"/>
@@ -1491,7 +1488,7 @@
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="8"/>
@@ -1510,7 +1507,7 @@
     </row>
     <row r="28" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="8">
         <f>200000*5%</f>
@@ -1521,7 +1518,7 @@
     </row>
     <row r="29" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B29" s="9">
         <v>22500</v>
@@ -1534,7 +1531,7 @@
     </row>
     <row r="30" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1544,8 +1541,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>57</v>
+      <c r="A31" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1555,8 +1552,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>58</v>
+      <c r="A32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1564,7 +1561,7 @@
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1574,7 +1571,7 @@
     </row>
     <row r="34" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1594,17 +1591,17 @@
     </row>
     <row r="36" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="12">
+      <c r="D36" s="8">
         <v>-4980</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>62</v>
+      <c r="A37" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
